--- a/biology/Histoire de la zoologie et de la botanique/Alfred_William_Howitt/Alfred_William_Howitt.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alfred_William_Howitt/Alfred_William_Howitt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred William Howitt (Nottingham, 17 avril 1830 – Bairnsdale, 7 mars 1908) est un anthropologue et naturaliste australien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Howitt naît à Nottingham, en Angleterre. Ses parents, William Howitt et Mary Botham, sont tous deux écrivains. Lors de la ruée vers l'or, il se rend avec son père et son frère dans l'État de Victoria (Australie). Il y occupe successivement les fonctions d'officier de police, puis de secrétaire du département des mines.
 En 186, Howitt est un explorateur expérimenté, et la Royal Society du Victoria le désigne comme chef de l'expédition de secours chargé de retrouver les explorateurs Burke et Wills. Il prend le strict équipement nécessaire et une petite équipe pour atteindre Cooper Creek. Il retrouve le seul survivant de l'expédition, John King, et enterre les corps de Burke et Wills avant de retourner à Melbourne; une seconde expédition, en 1862, lui permettra de rapatrier les corps des deux explorateurs.
@@ -548,7 +562,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Alfred William Howitt » (voir la liste des auteurs).</t>
         </is>
